--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3746242.200225823</v>
+        <v>3744354.61870942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7627700121625</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.6999128968758</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>34.50046002839201</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>65.09474806312701</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>129.0246247964032</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>185.8386997826079</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>56.75885316694707</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.96451678969</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.21533678566889</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>225.1809026611657</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.548751148792808</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>107.1555119083925</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.843519215191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>27.55584844405797</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>47.90926526970519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>6.348656829619438</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>49.38162151975428</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.095553750566949</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.2022398832702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>1.341035737731691</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965558</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437447</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571522</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.21861708034052</v>
+        <v>54.76109577523602</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550465</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298325</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700206</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.546461473041</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.546461473041</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,55 +4325,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.546461473041</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.546461473041</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.717708340416</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.755191400004</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>899.4894927932537</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>513.7012401950094</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="F5" t="n">
-        <v>102.7153354054018</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>88.79193134399274</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>88.79193134399274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="C7" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>110.4106712369798</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>184.2708856551152</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1410.622100242646</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1052.356401635896</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>666.5681490376517</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>659.6226482884482</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>241.6588401866351</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155874</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1443.14320309763</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1243.223193013183</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1019.437777802689</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>730.3091390162467</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.3160779381291</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C16" t="n">
-        <v>210.3160779381291</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D16" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>210.3160779381291</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033467</v>
+        <v>877.7643257444086</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663861</v>
+        <v>877.7643257444086</v>
       </c>
       <c r="X16" t="n">
-        <v>391.9645427683688</v>
+        <v>649.7747748463912</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.9645427683688</v>
+        <v>428.9821957028612</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745894</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745894</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5835,22 +5835,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.9005583181191</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C22" t="n">
-        <v>272.9643753902122</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D22" t="n">
-        <v>272.9643753902122</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E22" t="n">
-        <v>125.0512818078192</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>644.1080300429518</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>644.1080300429518</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>595.7148328008253</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>595.7148328008254</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405891</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405892</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.06397594712</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035282</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247874</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609665</v>
+        <v>675.0071030383455</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550797</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181186</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X25" t="n">
-        <v>392.020132540589</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.0201325405891</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>564.1830073829215</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>395.2468244550146</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>784.9755865264516</v>
       </c>
       <c r="W28" t="n">
-        <v>496.6650364395581</v>
+        <v>784.9755865264516</v>
       </c>
       <c r="X28" t="n">
-        <v>496.6650364395581</v>
+        <v>784.9755865264516</v>
       </c>
       <c r="Y28" t="n">
-        <v>390.4001476685781</v>
+        <v>564.1830073829215</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430011</v>
+        <v>564.0654479498185</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430011</v>
+        <v>450.890130303282</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430011</v>
+        <v>356.5343561723168</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430011</v>
+        <v>356.5343561723168</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264615</v>
+        <v>265.4052739557769</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276528</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569672</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962039</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1892.470894288053</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1748.311749484976</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1580.287199555853</v>
+        <v>1568.628130167067</v>
       </c>
       <c r="U31" t="n">
-        <v>1346.919426050782</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1147.995803126266</v>
+        <v>1136.336733737479</v>
       </c>
       <c r="W31" t="n">
-        <v>914.339498370676</v>
+        <v>902.680428981889</v>
       </c>
       <c r="X31" t="n">
-        <v>742.1108127540293</v>
+        <v>730.451743365242</v>
       </c>
       <c r="Y31" t="n">
-        <v>577.07909889187</v>
+        <v>565.4200295030824</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6777,19 +6777,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,28 +6923,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010319</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7783,16 +7783,16 @@
         <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010313</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622806</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>54.74901561812393</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>61.3420956754253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H16" t="n">
-        <v>147.3650772187433</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>144.9821314154355</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>44.59484226146733</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338638</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>117.8651995788732</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>177.8003901193319</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>245.7889864942086</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>176.3280338692829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>251.0420895732611</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.3824134688246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.2876878156488</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.2307060180124</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897935</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.54247869489524</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698726.5714523911</v>
+        <v>698726.5714523909</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="I2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="J2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214867</v>
+        <v>732279.847221485</v>
       </c>
       <c r="L2" t="n">
+        <v>738937.5928778565</v>
+      </c>
+      <c r="M2" t="n">
         <v>738937.5928778562</v>
       </c>
-      <c r="M2" t="n">
-        <v>738937.5928778566</v>
-      </c>
       <c r="N2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778563</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778561</v>
+        <v>738937.5928778563</v>
       </c>
       <c r="P2" t="n">
         <v>738937.5928778565</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.052613581327023e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284538</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086712</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284538</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007554</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020392</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732792</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602014</v>
+        <v>-81806.41311602018</v>
       </c>
       <c r="C6" t="n">
-        <v>508161.4660985245</v>
+        <v>508161.4660985243</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985243</v>
+        <v>508161.4660985247</v>
       </c>
       <c r="E6" t="n">
-        <v>78788.21344625548</v>
+        <v>78690.75432028352</v>
       </c>
       <c r="F6" t="n">
-        <v>603948.2499231519</v>
+        <v>603850.7907971796</v>
       </c>
       <c r="G6" t="n">
-        <v>603948.2499231519</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="H6" t="n">
-        <v>603948.2499231516</v>
+        <v>603850.7907971796</v>
       </c>
       <c r="I6" t="n">
-        <v>603948.2499231517</v>
+        <v>603850.7907971792</v>
       </c>
       <c r="J6" t="n">
-        <v>427525.030730559</v>
+        <v>427427.5716045866</v>
       </c>
       <c r="K6" t="n">
-        <v>565407.6792182144</v>
+        <v>565389.1854802786</v>
       </c>
       <c r="L6" t="n">
         <v>600544.0613596359</v>
       </c>
       <c r="M6" t="n">
-        <v>476085.9529266659</v>
+        <v>476085.9529266658</v>
       </c>
       <c r="N6" t="n">
         <v>610886.9681605028</v>
       </c>
       <c r="O6" t="n">
-        <v>610886.9681605027</v>
+        <v>610886.968160503</v>
       </c>
       <c r="P6" t="n">
-        <v>566724.3628576574</v>
+        <v>566724.3628576577</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>9.693671153133342e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,13 +26756,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855672</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.9286335010839</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855672</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855672</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>112.9202716085204</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>39.53802575917774</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>117.4308562164692</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>151.3535722945308</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>38.22219630222463</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>90.53095012411995</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>138.0840729817492</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>229.7641451696439</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.430414738572741e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.465120438763671e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855677</v>
       </c>
     </row>
     <row r="32">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>777.6835120841789</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,7 +35981,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187475</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
@@ -36218,10 +36218,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341674</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412229</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491596</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403575</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>532.8670379385735</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
@@ -37871,7 +37871,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
@@ -37880,7 +37880,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
